--- a/output/Sol-2.xlsx
+++ b/output/Sol-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhtam/Desktop/GA/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82732BB8-0DC3-974A-B192-7BBB06F3CB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F40A12B-04DB-034B-8F34-2EEC4B42853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LT" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="123">
   <si>
     <t>Mã môn học</t>
   </si>
@@ -399,7 +399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +424,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -479,6 +492,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,296 +1357,296 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F10" s="9">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9">
+        <v>120</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>80</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G12" s="8">
         <v>80</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>80</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>80</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="4" t="s">
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
         <v>5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>11</v>
       </c>
       <c r="G13" s="4">
         <v>80</v>
@@ -1692,13 +1708,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4">
         <v>6</v>
       </c>
       <c r="F14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4">
         <v>80</v>
@@ -1760,13 +1776,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4">
         <v>80</v>
@@ -1828,13 +1844,13 @@
         <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4">
         <v>3</v>
       </c>
       <c r="F16" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="4">
         <v>80</v>
@@ -1893,19 +1909,19 @@
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>27</v>
@@ -1964,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4">
         <v>120</v>
@@ -2032,13 +2048,13 @@
         <v>31</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
         <v>120</v>
@@ -2100,13 +2116,13 @@
         <v>31</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
       </c>
       <c r="F20" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
         <v>120</v>
@@ -2165,19 +2181,19 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>27</v>
@@ -2227,22 +2243,22 @@
     </row>
     <row r="22" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4">
         <v>80</v>
@@ -2293,71 +2309,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>9</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>80</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="4" t="s">
+      <c r="H23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2372,13 +2388,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
         <v>80</v>
@@ -2440,13 +2456,13 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="3">
         <v>80</v>
@@ -2497,139 +2513,139 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
         <v>80</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>80</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="4" t="s">
+      <c r="H27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2644,13 +2660,13 @@
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3">
         <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G28" s="3">
         <v>80</v>
@@ -2712,13 +2728,13 @@
         <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3">
         <v>6</v>
       </c>
       <c r="F29" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3">
         <v>80</v>
@@ -2780,13 +2796,13 @@
         <v>31</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
         <v>80</v>
@@ -2848,10 +2864,10 @@
         <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3">
         <v>3</v>
@@ -2916,10 +2932,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
@@ -2984,10 +3000,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
@@ -3052,13 +3068,13 @@
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3">
         <v>80</v>
@@ -3120,13 +3136,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3">
         <v>80</v>
@@ -3185,16 +3201,16 @@
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3">
         <v>80</v>
@@ -3245,71 +3261,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="3">
+    <row r="37" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
         <v>4</v>
       </c>
-      <c r="F37" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>80</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W37" s="3" t="s">
+      <c r="H37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3324,10 +3340,10 @@
         <v>25</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" s="4">
         <v>4</v>
@@ -3389,16 +3405,16 @@
         <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4">
         <v>6</v>
       </c>
       <c r="F39" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4">
         <v>80</v>
@@ -3460,13 +3476,13 @@
         <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4">
         <v>6</v>
       </c>
       <c r="F40" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4">
         <v>80</v>
@@ -3517,296 +3533,296 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
+    <row r="41" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>4</v>
+      </c>
+      <c r="G41" s="8">
+        <v>80</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3</v>
+      </c>
+      <c r="F42" s="10">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>80</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="9">
+        <v>6</v>
+      </c>
+      <c r="F43" s="9">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8">
+        <v>80</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E44" s="9">
         <v>6</v>
       </c>
-      <c r="F41" s="4">
-        <v>2</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F44" s="9">
+        <v>8</v>
+      </c>
+      <c r="G44" s="8">
         <v>80</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="4">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4">
-        <v>7</v>
-      </c>
-      <c r="G42" s="4">
-        <v>80</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>80</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="4">
-        <v>80</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W44" s="4" t="s">
+      <c r="H44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4">
         <v>80</v>
@@ -3857,139 +3873,139 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="D46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="3">
         <v>2</v>
       </c>
-      <c r="G46" s="4">
+      <c r="F46" s="3">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
         <v>80</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="H46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="C47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="4">
+        <v>6</v>
+      </c>
+      <c r="F47" s="4">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
-        <v>9</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="4">
         <v>80</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W47" s="3" t="s">
+      <c r="H47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W47" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4004,13 +4020,13 @@
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4">
         <v>6</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="4">
         <v>80</v>
@@ -4072,13 +4088,13 @@
         <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E49" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G49" s="4">
         <v>80</v>
@@ -4140,13 +4156,13 @@
         <v>25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" s="4">
         <v>4</v>
       </c>
       <c r="F50" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" s="4">
         <v>80</v>
@@ -4197,139 +4213,139 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4">
-        <v>11</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3">
         <v>80</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="4">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F52" s="4">
+        <v>8</v>
+      </c>
+      <c r="G52" s="4">
         <v>80</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W52" s="3" t="s">
+      <c r="H52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W52" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4344,13 +4360,13 @@
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53" s="4">
         <v>5</v>
       </c>
       <c r="F53" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4">
         <v>80</v>
@@ -4412,13 +4428,13 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4">
         <v>80</v>
@@ -4480,13 +4496,13 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E55" s="4">
         <v>6</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55" s="4">
         <v>80</v>
@@ -4548,13 +4564,13 @@
         <v>31</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="4">
         <v>80</v>
@@ -4616,13 +4632,13 @@
         <v>31</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
       <c r="F57" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G57" s="4">
         <v>80</v>
@@ -4675,22 +4691,22 @@
     </row>
     <row r="58" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E58" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="4">
         <v>80</v>
@@ -4752,13 +4768,13 @@
         <v>35</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E59" s="4">
         <v>6</v>
       </c>
       <c r="F59" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G59" s="4">
         <v>80</v>
@@ -4817,13 +4833,13 @@
         <v>63</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E60" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="4">
         <v>2</v>
@@ -4888,13 +4904,13 @@
         <v>25</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E61" s="4">
         <v>5</v>
       </c>
       <c r="F61" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G61" s="4">
         <v>80</v>
@@ -4956,13 +4972,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E62" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G62" s="4">
         <v>80</v>
@@ -5024,13 +5040,13 @@
         <v>25</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E63" s="4">
         <v>6</v>
       </c>
       <c r="F63" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G63" s="4">
         <v>80</v>
@@ -5092,13 +5108,13 @@
         <v>25</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E64" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G64" s="4">
         <v>80</v>
@@ -5157,16 +5173,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E65" s="4">
         <v>2</v>
       </c>
       <c r="F65" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" s="4">
         <v>80</v>
@@ -5228,13 +5244,13 @@
         <v>31</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66" s="4">
         <v>2</v>
       </c>
       <c r="F66" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4">
         <v>80</v>
@@ -5296,13 +5312,13 @@
         <v>31</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E67" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G67" s="4">
         <v>80</v>
@@ -5364,13 +5380,13 @@
         <v>31</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E68" s="4">
         <v>4</v>
       </c>
       <c r="F68" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G68" s="4">
         <v>80</v>
@@ -5432,13 +5448,13 @@
         <v>31</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E69" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G69" s="4">
         <v>80</v>
@@ -5500,13 +5516,13 @@
         <v>31</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E70" s="4">
         <v>3</v>
       </c>
       <c r="F70" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="4">
         <v>80</v>
@@ -5559,25 +5575,25 @@
     </row>
     <row r="71" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E71" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>27</v>
@@ -5633,16 +5649,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
         <v>4</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2</v>
       </c>
       <c r="G72" s="4">
         <v>60</v>
@@ -5704,13 +5720,13 @@
         <v>31</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
       </c>
       <c r="F73" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4">
         <v>60</v>
@@ -5761,71 +5777,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="4">
-        <v>3</v>
-      </c>
-      <c r="F74" s="4">
-        <v>2</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="D74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="3">
+        <v>6</v>
+      </c>
+      <c r="F74" s="3">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3">
         <v>60</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W74" s="4" t="s">
+      <c r="H74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W74" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5840,13 +5856,13 @@
         <v>31</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E75" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F75" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G75" s="3">
         <v>60</v>
@@ -5897,71 +5913,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="3">
+    <row r="76" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="4">
         <v>4</v>
       </c>
-      <c r="F76" s="3">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="F76" s="4">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4">
         <v>60</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W76" s="3" t="s">
+      <c r="H76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W76" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5976,13 +5992,13 @@
         <v>25</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E77" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77" s="4">
         <v>60</v>
@@ -6044,13 +6060,13 @@
         <v>25</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E78" s="4">
         <v>5</v>
       </c>
       <c r="F78" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G78" s="4">
         <v>60</v>
@@ -6101,71 +6117,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="4">
-        <v>5</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="3">
         <v>4</v>
       </c>
-      <c r="G79" s="4">
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
+      <c r="G79" s="3">
         <v>60</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W79" s="4" t="s">
+      <c r="H79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W79" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6180,13 +6196,13 @@
         <v>25</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E80" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F80" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G80" s="3">
         <v>60</v>
@@ -6237,71 +6253,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="3">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>7</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="C81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="4">
+        <v>4</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4</v>
+      </c>
+      <c r="G81" s="4">
         <v>60</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W81" s="3" t="s">
+      <c r="H81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W81" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6316,13 +6332,13 @@
         <v>31</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E82" s="4">
         <v>4</v>
       </c>
       <c r="F82" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4">
         <v>60</v>
@@ -6384,13 +6400,13 @@
         <v>31</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E83" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G83" s="4">
         <v>60</v>
@@ -6452,13 +6468,13 @@
         <v>31</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E84" s="4">
         <v>5</v>
       </c>
       <c r="F84" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G84" s="4">
         <v>60</v>
@@ -6509,71 +6525,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="4">
-        <v>5</v>
-      </c>
-      <c r="F85" s="4">
-        <v>10</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="D85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3">
         <v>60</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W85" s="4" t="s">
+      <c r="H85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W85" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6588,7 +6604,7 @@
         <v>31</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E86" s="3">
         <v>3</v>
@@ -6656,13 +6672,13 @@
         <v>31</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E87" s="3">
         <v>3</v>
       </c>
       <c r="F87" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G87" s="3">
         <v>60</v>
@@ -6724,7 +6740,7 @@
         <v>31</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E88" s="3">
         <v>3</v>
@@ -6792,13 +6808,13 @@
         <v>31</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E89" s="3">
+        <v>6</v>
+      </c>
+      <c r="F89" s="3">
         <v>3</v>
-      </c>
-      <c r="F89" s="3">
-        <v>7</v>
       </c>
       <c r="G89" s="3">
         <v>60</v>
@@ -6860,13 +6876,13 @@
         <v>31</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E90" s="3">
         <v>6</v>
       </c>
       <c r="F90" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G90" s="3">
         <v>60</v>
@@ -6917,207 +6933,207 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="C91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="4">
+        <v>8</v>
+      </c>
+      <c r="G91" s="4">
+        <v>60</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W91" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="3">
         <v>6</v>
       </c>
-      <c r="F91" s="3">
-        <v>7</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F92" s="3">
+        <v>3</v>
+      </c>
+      <c r="G92" s="3">
         <v>60</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="4">
-        <v>2</v>
-      </c>
-      <c r="F92" s="4">
-        <v>8</v>
-      </c>
-      <c r="G92" s="4">
-        <v>60</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W92" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="H92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="4">
         <v>6</v>
       </c>
-      <c r="F93" s="3">
-        <v>3</v>
-      </c>
-      <c r="G93" s="3">
-        <v>60</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V93" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W93" s="3" t="s">
+      <c r="F93" s="4">
+        <v>4</v>
+      </c>
+      <c r="G93" s="4">
+        <v>80</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W93" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7129,16 +7145,16 @@
         <v>69</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E94" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94" s="4">
         <v>80</v>
@@ -7200,13 +7216,13 @@
         <v>31</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E95" s="4">
         <v>2</v>
       </c>
       <c r="F95" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G95" s="4">
         <v>80</v>
@@ -7257,71 +7273,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2</v>
-      </c>
-      <c r="F96" s="4">
+      <c r="D96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="3">
         <v>4</v>
       </c>
-      <c r="G96" s="4">
+      <c r="F96" s="3">
+        <v>7</v>
+      </c>
+      <c r="G96" s="3">
         <v>80</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V96" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W96" s="4" t="s">
+      <c r="H96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W96" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7336,13 +7352,13 @@
         <v>31</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G97" s="3">
         <v>80</v>
@@ -7393,411 +7409,207 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="3" t="s">
+    <row r="98" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="D98" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="9">
         <v>3</v>
       </c>
-      <c r="F98" s="3">
-        <v>10</v>
-      </c>
-      <c r="G98" s="3">
+      <c r="F98" s="9">
+        <v>2</v>
+      </c>
+      <c r="G98" s="9">
+        <v>120</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W98" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="9">
+        <v>3</v>
+      </c>
+      <c r="F99" s="9">
+        <v>4</v>
+      </c>
+      <c r="G99" s="9">
+        <v>120</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W99" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="8">
+        <v>4</v>
+      </c>
+      <c r="F100" s="9">
+        <v>3</v>
+      </c>
+      <c r="G100" s="8">
         <v>80</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W98" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="4">
-        <v>4</v>
-      </c>
-      <c r="F99" s="4">
-        <v>4</v>
-      </c>
-      <c r="G99" s="4">
-        <v>80</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W99" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="4">
-        <v>4</v>
-      </c>
-      <c r="F100" s="4">
-        <v>2</v>
-      </c>
-      <c r="G100" s="4">
-        <v>80</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W100" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2</v>
-      </c>
-      <c r="F101" s="3">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3">
-        <v>80</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3">
-        <v>80</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="4">
-        <v>4</v>
-      </c>
-      <c r="F103" s="4">
-        <v>4</v>
-      </c>
-      <c r="G103" s="4">
-        <v>80</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V103" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W103" s="4" t="s">
+      <c r="H100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W100" s="8" t="s">
         <v>27</v>
       </c>
     </row>
